--- a/code/content/TOPIC_XLSX/요일_2.xlsx
+++ b/code/content/TOPIC_XLSX/요일_2.xlsx
@@ -390,42 +390,42 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>112</v>
+        <v>390</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>111</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>102</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>94</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>88</v>
+        <v>347</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -433,7 +433,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>36</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -441,7 +441,7 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>21</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
